--- a/raw_data/20200818_saline/20200818_Sensor0_Test_47.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_47.xlsx
@@ -1,688 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085CC918-6E16-4DBC-AE0B-21EA451D8307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>41402.911300</v>
+        <v>41402.9113</v>
       </c>
       <c r="B2" s="1">
         <v>11.500809</v>
       </c>
       <c r="C2" s="1">
-        <v>913.618000</v>
+        <v>913.61800000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-182.661000</v>
+        <v>-182.661</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>41413.384327</v>
       </c>
       <c r="G2" s="1">
-        <v>11.503718</v>
+        <v>11.503717999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>929.082000</v>
+        <v>929.08199999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-155.666000</v>
+        <v>-155.666</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>41423.873261</v>
+        <v>41423.873261000001</v>
       </c>
       <c r="L2" s="1">
         <v>11.506631</v>
       </c>
       <c r="M2" s="1">
-        <v>948.316000</v>
+        <v>948.31600000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-113.161000</v>
+        <v>-113.161</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>41434.417675</v>
+        <v>41434.417674999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.509560</v>
+        <v>11.50956</v>
       </c>
       <c r="R2" s="1">
-        <v>954.692000</v>
+        <v>954.69200000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-99.430800</v>
+        <v>-99.430800000000005</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>41444.991390</v>
+        <v>41444.991390000003</v>
       </c>
       <c r="V2" s="1">
-        <v>11.512498</v>
+        <v>11.512498000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>961.195000</v>
+        <v>961.19500000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.483100</v>
+        <v>-87.483099999999993</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>41455.767470</v>
+        <v>41455.767469999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.515491</v>
+        <v>11.515491000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.913000</v>
+        <v>968.91300000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.453400</v>
+        <v>-79.453400000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>41466.339201</v>
+        <v>41466.339201000003</v>
       </c>
       <c r="AF2" s="1">
         <v>11.518428</v>
       </c>
       <c r="AG2" s="1">
-        <v>974.081000</v>
+        <v>974.08100000000002</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.567300</v>
+        <v>-79.567300000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>41476.761666</v>
+        <v>41476.761665999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.521323</v>
+        <v>11.521323000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>982.337000</v>
+        <v>982.33699999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.544900</v>
+        <v>-87.544899999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>41487.320469</v>
+        <v>41487.320468999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.524256</v>
+        <v>11.524255999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>991.780000</v>
+        <v>991.78</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.783000</v>
+        <v>-102.783</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>41498.633719</v>
+        <v>41498.633718999998</v>
       </c>
       <c r="AU2" s="1">
         <v>11.527398</v>
       </c>
       <c r="AV2" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.498000</v>
+        <v>-124.498</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>41509.427192</v>
+        <v>41509.427192000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>11.530396</v>
       </c>
       <c r="BA2" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.413000</v>
+        <v>-143.41300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>41519.773209</v>
+        <v>41519.773208999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.533270</v>
+        <v>11.53327</v>
       </c>
       <c r="BF2" s="1">
-        <v>1058.070000</v>
+        <v>1058.07</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.925000</v>
+        <v>-228.92500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>41530.834491</v>
+        <v>41530.834491000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.536343</v>
       </c>
       <c r="BK2" s="1">
-        <v>1137.190000</v>
+        <v>1137.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.778000</v>
+        <v>-366.77800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>41541.985052</v>
+        <v>41541.985052000004</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.539440</v>
+        <v>11.539440000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.948000</v>
+        <v>-580.94799999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>41553.140109</v>
@@ -691,560 +1107,560 @@
         <v>11.542539</v>
       </c>
       <c r="BU2" s="1">
-        <v>1416.820000</v>
+        <v>1416.82</v>
       </c>
       <c r="BV2" s="1">
-        <v>-810.195000</v>
+        <v>-810.19500000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>41564.547598</v>
+        <v>41564.547597999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.545708</v>
+        <v>11.545707999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1580.460000</v>
+        <v>1580.46</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1050.500000</v>
+        <v>-1050.5</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>41575.465503</v>
+        <v>41575.465502999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.548740</v>
+        <v>11.54874</v>
       </c>
       <c r="CE2" s="1">
-        <v>1995.730000</v>
+        <v>1995.73</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1610.780000</v>
+        <v>-1610.78</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>41403.348275</v>
+        <v>41403.348274999997</v>
       </c>
       <c r="B3" s="1">
-        <v>11.500930</v>
+        <v>11.50093</v>
       </c>
       <c r="C3" s="1">
-        <v>913.754000</v>
+        <v>913.75400000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-182.675000</v>
+        <v>-182.67500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41413.746439</v>
+        <v>41413.746439000002</v>
       </c>
       <c r="G3" s="1">
-        <v>11.503818</v>
+        <v>11.503818000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>928.633000</v>
+        <v>928.63300000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-155.282000</v>
+        <v>-155.28200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>41424.255641</v>
+        <v>41424.255641000003</v>
       </c>
       <c r="L3" s="1">
         <v>11.506738</v>
       </c>
       <c r="M3" s="1">
-        <v>948.316000</v>
+        <v>948.31600000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-113.308000</v>
+        <v>-113.30800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>41435.152250</v>
+        <v>41435.152249999999</v>
       </c>
       <c r="Q3" s="1">
         <v>11.509765</v>
       </c>
       <c r="R3" s="1">
-        <v>954.740000</v>
+        <v>954.74</v>
       </c>
       <c r="S3" s="1">
-        <v>-99.467300</v>
+        <v>-99.467299999999994</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>41445.709595</v>
       </c>
       <c r="V3" s="1">
-        <v>11.512697</v>
+        <v>11.512696999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>961.178000</v>
+        <v>961.178</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.474900</v>
+        <v>-87.474900000000005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>41456.153853</v>
+        <v>41456.153853000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.515598</v>
+        <v>11.515598000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.934000</v>
+        <v>968.93399999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.375600</v>
+        <v>-79.375600000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>41466.686898</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.518524</v>
+        <v>11.518523999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>974.044000</v>
+        <v>974.04399999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.550300</v>
+        <v>-79.550299999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>41477.138595</v>
+        <v>41477.138594999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.521427</v>
+        <v>11.521426999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>982.322000</v>
+        <v>982.322</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.561300</v>
+        <v>-87.561300000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>41488.016891</v>
+        <v>41488.016890999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.524449</v>
+        <v>11.524449000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>991.777000</v>
+        <v>991.77700000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.751000</v>
+        <v>-102.751</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>41498.753749</v>
+        <v>41498.753749000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.527432</v>
+        <v>11.527431999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.519000</v>
+        <v>-124.51900000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>41509.852726</v>
+        <v>41509.852725999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11.530515</v>
+        <v>11.530514999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.403000</v>
+        <v>-143.40299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>41520.138267</v>
+        <v>41520.138267000002</v>
       </c>
       <c r="BE3" s="1">
         <v>11.533372</v>
       </c>
       <c r="BF3" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.954000</v>
+        <v>-228.95400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>41531.211946</v>
+        <v>41531.211946000003</v>
       </c>
       <c r="BJ3" s="1">
         <v>11.536448</v>
       </c>
       <c r="BK3" s="1">
-        <v>1137.190000</v>
+        <v>1137.19</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.810000</v>
+        <v>-366.81</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>41542.398747</v>
+        <v>41542.398746999999</v>
       </c>
       <c r="BO3" s="1">
         <v>11.539555</v>
       </c>
       <c r="BP3" s="1">
-        <v>1268.610000</v>
+        <v>1268.6099999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.921000</v>
+        <v>-580.92100000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>41553.602845</v>
+        <v>41553.602845000001</v>
       </c>
       <c r="BT3" s="1">
         <v>11.542667</v>
       </c>
       <c r="BU3" s="1">
-        <v>1416.940000</v>
+        <v>1416.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-810.200000</v>
+        <v>-810.2</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>41564.720206</v>
+        <v>41564.720205999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.545756</v>
+        <v>11.545756000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1580.430000</v>
+        <v>1580.43</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>41575.753185</v>
+        <v>41575.753185000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>11.548820</v>
+        <v>11.548819999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1994.920000</v>
+        <v>1994.92</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1612.020000</v>
+        <v>-1612.02</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>41403.690516</v>
+        <v>41403.690516000002</v>
       </c>
       <c r="B4" s="1">
         <v>11.501025</v>
       </c>
       <c r="C4" s="1">
-        <v>913.716000</v>
+        <v>913.71600000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-182.692000</v>
+        <v>-182.69200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>41414.089142</v>
+        <v>41414.089141999997</v>
       </c>
       <c r="G4" s="1">
         <v>11.503914</v>
       </c>
       <c r="H4" s="1">
-        <v>928.232000</v>
+        <v>928.23199999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-155.441000</v>
+        <v>-155.441</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>41424.946113</v>
+        <v>41424.946112999998</v>
       </c>
       <c r="L4" s="1">
         <v>11.506929</v>
       </c>
       <c r="M4" s="1">
-        <v>948.358000</v>
+        <v>948.35799999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-113.181000</v>
+        <v>-113.181</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>41435.498985</v>
+        <v>41435.498984999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.509861</v>
+        <v>11.509861000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>954.734000</v>
+        <v>954.73400000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-99.440600</v>
+        <v>-99.440600000000003</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>41446.051836</v>
+        <v>41446.051835999999</v>
       </c>
       <c r="V4" s="1">
-        <v>11.512792</v>
+        <v>11.512791999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>961.235000</v>
+        <v>961.23500000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.623900</v>
+        <v>-87.623900000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>41456.502077</v>
+        <v>41456.502076999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.515695</v>
+        <v>11.515694999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>968.915000</v>
+        <v>968.91499999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.346800</v>
+        <v>-79.346800000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>41467.346079</v>
+        <v>41467.346079000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.518707</v>
+        <v>11.518706999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>973.878000</v>
+        <v>973.87800000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.239200</v>
+        <v>-79.239199999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>41477.794801</v>
+        <v>41477.794800999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.521610</v>
+        <v>11.521610000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>982.296000</v>
+        <v>982.29600000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.550500</v>
+        <v>-87.5505</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>41488.431508</v>
+        <v>41488.431508000001</v>
       </c>
       <c r="AP4" s="1">
         <v>11.524564</v>
       </c>
       <c r="AQ4" s="1">
-        <v>991.773000</v>
+        <v>991.77300000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>41499.117813</v>
+        <v>41499.117812999997</v>
       </c>
       <c r="AU4" s="1">
         <v>11.527533</v>
       </c>
       <c r="AV4" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.509000</v>
+        <v>-124.509</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>41510.210873</v>
+        <v>41510.210873000004</v>
       </c>
       <c r="AZ4" s="1">
         <v>11.530614</v>
       </c>
       <c r="BA4" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.389000</v>
+        <v>-143.38900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>41520.499848</v>
+        <v>41520.499847999999</v>
       </c>
       <c r="BE4" s="1">
         <v>11.533472</v>
       </c>
       <c r="BF4" s="1">
-        <v>1058.060000</v>
+        <v>1058.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.938000</v>
+        <v>-228.93799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>41531.641483</v>
+        <v>41531.641482999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>11.536567</v>
       </c>
       <c r="BK4" s="1">
-        <v>1137.190000</v>
+        <v>1137.19</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.797000</v>
+        <v>-366.79700000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>41542.820811</v>
+        <v>41542.820810999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>11.539672</v>
+        <v>11.539671999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1268.550000</v>
+        <v>1268.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.960000</v>
+        <v>-580.96</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>41554.019521</v>
+        <v>41554.019521000002</v>
       </c>
       <c r="BT4" s="1">
         <v>11.542783</v>
       </c>
       <c r="BU4" s="1">
-        <v>1417.010000</v>
+        <v>1417.01</v>
       </c>
       <c r="BV4" s="1">
-        <v>-810.208000</v>
+        <v>-810.20799999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>41565.158639</v>
+        <v>41565.158639000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.545877</v>
+        <v>11.545877000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1580.610000</v>
+        <v>1580.61</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1050.710000</v>
+        <v>-1050.71</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>41576.268528</v>
+        <v>41576.268528000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>11.548963</v>
+        <v>11.548963000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1996.140000</v>
+        <v>1996.14</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1612.500000</v>
+        <v>-1612.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>41404.373043</v>
       </c>
@@ -1252,450 +1668,450 @@
         <v>11.501215</v>
       </c>
       <c r="C5" s="1">
-        <v>913.613000</v>
+        <v>913.61300000000006</v>
       </c>
       <c r="D5" s="1">
-        <v>-182.727000</v>
+        <v>-182.727</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>41414.779078</v>
       </c>
       <c r="G5" s="1">
-        <v>11.504105</v>
+        <v>11.504104999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>928.431000</v>
+        <v>928.43100000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-155.683000</v>
+        <v>-155.68299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>41425.293766</v>
+        <v>41425.293766000003</v>
       </c>
       <c r="L5" s="1">
         <v>11.507026</v>
       </c>
       <c r="M5" s="1">
-        <v>948.386000</v>
+        <v>948.38599999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-113.120000</v>
+        <v>-113.12</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>41435.850618</v>
+        <v>41435.850617999997</v>
       </c>
       <c r="Q5" s="1">
         <v>11.509959</v>
       </c>
       <c r="R5" s="1">
-        <v>954.711000</v>
+        <v>954.71100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.469900</v>
+        <v>-99.469899999999996</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>41446.396095</v>
+        <v>41446.396094999996</v>
       </c>
       <c r="V5" s="1">
         <v>11.512888</v>
       </c>
       <c r="W5" s="1">
-        <v>961.212000</v>
+        <v>961.21199999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.539700</v>
+        <v>-87.539699999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>41457.159740</v>
+        <v>41457.159740000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>11.515878</v>
+        <v>11.515878000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>968.892000</v>
+        <v>968.89200000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.362700</v>
+        <v>-79.362700000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>41467.716095</v>
+        <v>41467.716095000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.518810</v>
+        <v>11.51881</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.876000</v>
+        <v>973.87599999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.196000</v>
+        <v>-79.195999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>41478.183664</v>
+        <v>41478.183663999996</v>
       </c>
       <c r="AK5" s="1">
         <v>11.521718</v>
       </c>
       <c r="AL5" s="1">
-        <v>982.330000</v>
+        <v>982.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.541900</v>
+        <v>-87.541899999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>41488.820402</v>
+        <v>41488.820401999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.524672</v>
+        <v>11.524672000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>991.774000</v>
+        <v>991.774</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>41499.486340</v>
+        <v>41499.486340000003</v>
       </c>
       <c r="AU5" s="1">
         <v>11.527635</v>
       </c>
       <c r="AV5" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.511000</v>
+        <v>-124.511</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>41510.569974</v>
+        <v>41510.569973999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.530714</v>
       </c>
       <c r="BA5" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.416000</v>
+        <v>-143.416</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>41520.923965</v>
+        <v>41520.923965000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>11.533590</v>
+        <v>11.53359</v>
       </c>
       <c r="BF5" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.943000</v>
+        <v>-228.94300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>41531.967882</v>
+        <v>41531.967881999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.536658</v>
+        <v>11.536657999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1137.160000</v>
+        <v>1137.1600000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.801000</v>
+        <v>-366.80099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>41543.203723</v>
+        <v>41543.203722999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>11.539779</v>
+        <v>11.539778999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1268.570000</v>
+        <v>1268.57</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.020000</v>
+        <v>-581.02</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>41554.433675</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.542898</v>
+        <v>11.542897999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1417.080000</v>
+        <v>1417.08</v>
       </c>
       <c r="BV5" s="1">
-        <v>-810.195000</v>
+        <v>-810.19500000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>41565.581229</v>
+        <v>41565.581229000003</v>
       </c>
       <c r="BY5" s="1">
         <v>11.545995</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1580.590000</v>
+        <v>1580.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1050.650000</v>
+        <v>-1050.6500000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>41576.788832</v>
+        <v>41576.788831999998</v>
       </c>
       <c r="CD5" s="1">
         <v>11.549108</v>
       </c>
       <c r="CE5" s="1">
-        <v>1996.610000</v>
+        <v>1996.61</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1611.500000</v>
+        <v>-1611.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>41404.716739</v>
+        <v>41404.716739000003</v>
       </c>
       <c r="B6" s="1">
-        <v>11.501310</v>
+        <v>11.50131</v>
       </c>
       <c r="C6" s="1">
-        <v>913.641000</v>
+        <v>913.64099999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-182.662000</v>
+        <v>-182.66200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>41415.125284</v>
+        <v>41415.125284000002</v>
       </c>
       <c r="G6" s="1">
         <v>11.504201</v>
       </c>
       <c r="H6" s="1">
-        <v>928.370000</v>
+        <v>928.37</v>
       </c>
       <c r="I6" s="1">
-        <v>-155.480000</v>
+        <v>-155.47999999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>41425.642950</v>
+        <v>41425.642950000001</v>
       </c>
       <c r="L6" s="1">
         <v>11.507123</v>
       </c>
       <c r="M6" s="1">
-        <v>948.467000</v>
+        <v>948.46699999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-113.059000</v>
+        <v>-113.059</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>41436.507321</v>
+        <v>41436.507320999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.510141</v>
+        <v>11.510141000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>954.684000</v>
+        <v>954.68399999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.499800</v>
+        <v>-99.499799999999993</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>41447.054778</v>
+        <v>41447.054777999998</v>
       </c>
       <c r="V6" s="1">
         <v>11.513071</v>
       </c>
       <c r="W6" s="1">
-        <v>961.241000</v>
+        <v>961.24099999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.480100</v>
+        <v>-87.480099999999993</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>41457.547613</v>
+        <v>41457.547613000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.515985</v>
+        <v>11.515985000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.841000</v>
+        <v>968.84100000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.319100</v>
+        <v>-79.319100000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>41468.063327</v>
+        <v>41468.063327000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.518906</v>
+        <v>11.518905999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>973.875000</v>
+        <v>973.875</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.239400</v>
+        <v>-79.239400000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>41478.533344</v>
+        <v>41478.533344000003</v>
       </c>
       <c r="AK6" s="1">
         <v>11.521815</v>
       </c>
       <c r="AL6" s="1">
-        <v>982.314000</v>
+        <v>982.31399999999996</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.552700</v>
+        <v>-87.552700000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>41489.171042</v>
+        <v>41489.171042000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>11.524770</v>
+        <v>11.52477</v>
       </c>
       <c r="AQ6" s="1">
-        <v>991.768000</v>
+        <v>991.76800000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.757000</v>
+        <v>-102.75700000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>41499.919880</v>
+        <v>41499.919880000001</v>
       </c>
       <c r="AU6" s="1">
         <v>11.527756</v>
       </c>
       <c r="AV6" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.520000</v>
+        <v>-124.52</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>41510.992533</v>
+        <v>41510.992532999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.530831</v>
+        <v>11.530830999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1012.910000</v>
+        <v>1012.91</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.385000</v>
+        <v>-143.38499999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>41521.223511</v>
+        <v>41521.223510999997</v>
       </c>
       <c r="BE6" s="1">
         <v>11.533673</v>
       </c>
       <c r="BF6" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.956000</v>
+        <v>-228.95599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>41532.341337</v>
+        <v>41532.341336999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>11.536761</v>
       </c>
       <c r="BK6" s="1">
-        <v>1137.160000</v>
+        <v>1137.1600000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.800000</v>
+        <v>-366.8</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>41543.621884</v>
@@ -1704,105 +2120,105 @@
         <v>11.539895</v>
       </c>
       <c r="BP6" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.981000</v>
+        <v>-580.98099999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>41554.852300</v>
+        <v>41554.852299999999</v>
       </c>
       <c r="BT6" s="1">
         <v>11.543015</v>
       </c>
       <c r="BU6" s="1">
-        <v>1417.100000</v>
+        <v>1417.1</v>
       </c>
       <c r="BV6" s="1">
-        <v>-810.303000</v>
+        <v>-810.303</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>41566.007789</v>
+        <v>41566.007789000003</v>
       </c>
       <c r="BY6" s="1">
         <v>11.546113</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1580.570000</v>
+        <v>1580.57</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>41577.304673</v>
+        <v>41577.304672999999</v>
       </c>
       <c r="CD6" s="1">
         <v>11.549251</v>
       </c>
       <c r="CE6" s="1">
-        <v>1996.750000</v>
+        <v>1996.75</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1611.800000</v>
+        <v>-1611.8</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>41405.064930</v>
+        <v>41405.06493</v>
       </c>
       <c r="B7" s="1">
         <v>11.501407</v>
       </c>
       <c r="C7" s="1">
-        <v>913.697000</v>
+        <v>913.697</v>
       </c>
       <c r="D7" s="1">
-        <v>-182.559000</v>
+        <v>-182.559</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>41415.470003</v>
+        <v>41415.470003000002</v>
       </c>
       <c r="G7" s="1">
-        <v>11.504297</v>
+        <v>11.504296999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>928.102000</v>
+        <v>928.10199999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-155.805000</v>
+        <v>-155.80500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>41426.303157</v>
+        <v>41426.303157000002</v>
       </c>
       <c r="L7" s="1">
         <v>11.507306</v>
       </c>
       <c r="M7" s="1">
-        <v>948.258000</v>
+        <v>948.25800000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-113.075000</v>
+        <v>-113.075</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>41436.895719</v>
@@ -1811,148 +2227,148 @@
         <v>11.510249</v>
       </c>
       <c r="R7" s="1">
-        <v>954.701000</v>
+        <v>954.70100000000002</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.439600</v>
+        <v>-99.439599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>41447.429259</v>
+        <v>41447.429258999997</v>
       </c>
       <c r="V7" s="1">
         <v>11.513175</v>
       </c>
       <c r="W7" s="1">
-        <v>961.212000</v>
+        <v>961.21199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.391200</v>
+        <v>-87.391199999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>41457.894811</v>
+        <v>41457.894810999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.516082</v>
+        <v>11.516082000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>968.822000</v>
+        <v>968.822</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.341800</v>
+        <v>-79.341800000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>41468.408510</v>
+        <v>41468.408510000001</v>
       </c>
       <c r="AF7" s="1">
         <v>11.519002</v>
       </c>
       <c r="AG7" s="1">
-        <v>973.885000</v>
+        <v>973.88499999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.236900</v>
+        <v>-79.236900000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>41478.881073</v>
+        <v>41478.881072999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.521911</v>
+        <v>11.521910999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>982.306000</v>
+        <v>982.30600000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.546500</v>
+        <v>-87.546499999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>41489.597601</v>
+        <v>41489.597601000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.524888</v>
+        <v>11.524888000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>991.782000</v>
+        <v>991.78200000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.759000</v>
+        <v>-102.759</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>41500.210500</v>
+        <v>41500.210500000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>11.527836</v>
+        <v>11.527836000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.517000</v>
+        <v>-124.517</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>41511.289668</v>
+        <v>41511.289667999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.530914</v>
+        <v>11.530913999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1012.910000</v>
+        <v>1012.91</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.414000</v>
+        <v>-143.41399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>41521.584135</v>
+        <v>41521.584134999997</v>
       </c>
       <c r="BE7" s="1">
         <v>11.533773</v>
       </c>
       <c r="BF7" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.938000</v>
+        <v>-228.93799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>41532.741112</v>
+        <v>41532.741112000003</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.536873</v>
       </c>
       <c r="BK7" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.828000</v>
+        <v>-366.82799999999997</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>41544.020139</v>
@@ -1961,150 +2377,150 @@
         <v>11.540006</v>
       </c>
       <c r="BP7" s="1">
-        <v>1268.530000</v>
+        <v>1268.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.950000</v>
+        <v>-580.95000000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>41555.279324</v>
+        <v>41555.279324000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.543133</v>
+        <v>11.543132999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1417.200000</v>
+        <v>1417.2</v>
       </c>
       <c r="BV7" s="1">
-        <v>-810.412000</v>
+        <v>-810.41200000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>41566.450221</v>
+        <v>41566.450220999999</v>
       </c>
       <c r="BY7" s="1">
         <v>11.546236</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1580.480000</v>
+        <v>1580.48</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>41577.867630</v>
+        <v>41577.867630000001</v>
       </c>
       <c r="CD7" s="1">
         <v>11.549408</v>
       </c>
       <c r="CE7" s="1">
-        <v>1995.890000</v>
+        <v>1995.89</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1612.900000</v>
+        <v>-1612.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>41405.718160</v>
+        <v>41405.718159999997</v>
       </c>
       <c r="B8" s="1">
         <v>11.501588</v>
       </c>
       <c r="C8" s="1">
-        <v>913.543000</v>
+        <v>913.54300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-182.804000</v>
+        <v>-182.804</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>41416.133192</v>
+        <v>41416.133192000001</v>
       </c>
       <c r="G8" s="1">
         <v>11.504481</v>
       </c>
       <c r="H8" s="1">
-        <v>928.110000</v>
+        <v>928.11</v>
       </c>
       <c r="I8" s="1">
-        <v>-155.519000</v>
+        <v>-155.51900000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>41426.678101</v>
+        <v>41426.678100999998</v>
       </c>
       <c r="L8" s="1">
-        <v>11.507411</v>
+        <v>11.507410999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>948.309000</v>
+        <v>948.30899999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-113.071000</v>
+        <v>-113.071</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>41437.240425</v>
+        <v>41437.240425000004</v>
       </c>
       <c r="Q8" s="1">
-        <v>11.510345</v>
+        <v>11.510344999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>954.710000</v>
+        <v>954.71</v>
       </c>
       <c r="S8" s="1">
-        <v>-99.441200</v>
+        <v>-99.441199999999995</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>41447.779402</v>
       </c>
       <c r="V8" s="1">
-        <v>11.513272</v>
+        <v>11.513272000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>961.154000</v>
+        <v>961.154</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.375800</v>
+        <v>-87.375799999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>41458.242011</v>
+        <v>41458.242011000002</v>
       </c>
       <c r="AA8" s="1">
         <v>11.516178</v>
       </c>
       <c r="AB8" s="1">
-        <v>968.923000</v>
+        <v>968.923</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.307000</v>
+        <v>-79.307000000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>41468.835109</v>
@@ -2113,330 +2529,330 @@
         <v>11.519121</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.895000</v>
+        <v>973.89499999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.239100</v>
+        <v>-79.239099999999993</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>41479.304623</v>
+        <v>41479.304623000004</v>
       </c>
       <c r="AK8" s="1">
         <v>11.522029</v>
       </c>
       <c r="AL8" s="1">
-        <v>982.311000</v>
+        <v>982.31100000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.543900</v>
+        <v>-87.543899999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>41489.891730</v>
+        <v>41489.891730000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.524970</v>
+        <v>11.52497</v>
       </c>
       <c r="AQ8" s="1">
-        <v>991.781000</v>
+        <v>991.78099999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.762000</v>
+        <v>-102.762</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>41500.576052</v>
+        <v>41500.576051999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.527938</v>
+        <v>11.527938000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.494000</v>
+        <v>-124.494</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>41511.648244</v>
+        <v>41511.648244000004</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.531013</v>
       </c>
       <c r="BA8" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.408000</v>
+        <v>-143.40799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>41521.944232</v>
+        <v>41521.944232000002</v>
       </c>
       <c r="BE8" s="1">
         <v>11.533873</v>
       </c>
       <c r="BF8" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.953000</v>
+        <v>-228.953</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>41533.492055</v>
+        <v>41533.492055000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.537081</v>
+        <v>11.537081000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1137.160000</v>
+        <v>1137.1600000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.806000</v>
+        <v>-366.80599999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>41544.445209</v>
+        <v>41544.445208999998</v>
       </c>
       <c r="BO8" s="1">
         <v>11.540124</v>
       </c>
       <c r="BP8" s="1">
-        <v>1268.570000</v>
+        <v>1268.57</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.954000</v>
+        <v>-580.95399999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>41555.678106</v>
+        <v>41555.678105999999</v>
       </c>
       <c r="BT8" s="1">
         <v>11.543244</v>
       </c>
       <c r="BU8" s="1">
-        <v>1417.290000</v>
+        <v>1417.29</v>
       </c>
       <c r="BV8" s="1">
-        <v>-810.456000</v>
+        <v>-810.45600000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>41566.880251</v>
+        <v>41566.880251000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.546356</v>
+        <v>11.546355999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1580.320000</v>
+        <v>1580.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1050.630000</v>
+        <v>-1050.6300000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>41578.389923</v>
+        <v>41578.389923000002</v>
       </c>
       <c r="CD8" s="1">
         <v>11.549553</v>
       </c>
       <c r="CE8" s="1">
-        <v>1996.540000</v>
+        <v>1996.54</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1611.680000</v>
+        <v>-1611.68</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>41406.092651</v>
+        <v>41406.092650999999</v>
       </c>
       <c r="B9" s="1">
         <v>11.501692</v>
       </c>
       <c r="C9" s="1">
-        <v>913.585000</v>
+        <v>913.58500000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-182.704000</v>
+        <v>-182.70400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>41416.538387</v>
+        <v>41416.538387000001</v>
       </c>
       <c r="G9" s="1">
-        <v>11.504594</v>
+        <v>11.504594000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>928.396000</v>
+        <v>928.39599999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-155.364000</v>
+        <v>-155.364</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>41427.023317</v>
+        <v>41427.023316999999</v>
       </c>
       <c r="L9" s="1">
-        <v>11.507506</v>
+        <v>11.507505999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>948.191000</v>
+        <v>948.19100000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-113.031000</v>
+        <v>-113.03100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>41437.592072</v>
+        <v>41437.592071999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.510442</v>
+        <v>11.510441999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>954.680000</v>
+        <v>954.68</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.446300</v>
+        <v>-99.446299999999994</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>41448.125112</v>
+        <v>41448.125112000002</v>
       </c>
       <c r="V9" s="1">
         <v>11.513368</v>
       </c>
       <c r="W9" s="1">
-        <v>961.205000</v>
+        <v>961.20500000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.493200</v>
+        <v>-87.493200000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>41458.671355</v>
+        <v>41458.671354999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.516298</v>
+        <v>11.516298000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>968.904000</v>
+        <v>968.904</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.474400</v>
+        <v>-79.474400000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>41469.106381</v>
+        <v>41469.106380999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.519196</v>
+        <v>11.519196000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>973.854000</v>
+        <v>973.85400000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.245200</v>
+        <v>-79.245199999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>41479.581422</v>
+        <v>41479.581422000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.522106</v>
+        <v>11.522106000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>982.330000</v>
+        <v>982.33</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.565200</v>
+        <v>-87.565200000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>41490.257778</v>
+        <v>41490.257777999999</v>
       </c>
       <c r="AP9" s="1">
         <v>11.525072</v>
       </c>
       <c r="AQ9" s="1">
-        <v>991.781000</v>
+        <v>991.78099999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.758000</v>
+        <v>-102.758</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>41500.942594</v>
       </c>
       <c r="AU9" s="1">
-        <v>11.528040</v>
+        <v>11.528040000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.500000</v>
+        <v>-124.5</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>41512.007843</v>
+        <v>41512.007842999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.531113</v>
       </c>
       <c r="BA9" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.414000</v>
+        <v>-143.41399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>41522.669382</v>
@@ -2445,120 +2861,120 @@
         <v>11.534075</v>
       </c>
       <c r="BF9" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.945000</v>
+        <v>-228.94499999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>41533.892854</v>
+        <v>41533.892853999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>11.537192</v>
+        <v>11.537191999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.835000</v>
+        <v>-366.83499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>41544.837066</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.540233</v>
+        <v>11.540233000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1268.510000</v>
+        <v>1268.51</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.949000</v>
+        <v>-580.94899999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>41556.115579</v>
+        <v>41556.115578999998</v>
       </c>
       <c r="BT9" s="1">
         <v>11.543365</v>
       </c>
       <c r="BU9" s="1">
-        <v>1417.330000</v>
+        <v>1417.33</v>
       </c>
       <c r="BV9" s="1">
-        <v>-810.443000</v>
+        <v>-810.44299999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>41567.625775</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.546563</v>
+        <v>11.546563000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1580.540000</v>
+        <v>1580.54</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1050.600000</v>
+        <v>-1050.5999999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>41579.086795</v>
+        <v>41579.086795000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>11.549746</v>
+        <v>11.549746000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1995.340000</v>
+        <v>1995.34</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1611.000000</v>
+        <v>-1611</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>41406.438847</v>
+        <v>41406.438846999998</v>
       </c>
       <c r="B10" s="1">
         <v>11.501789</v>
       </c>
       <c r="C10" s="1">
-        <v>913.732000</v>
+        <v>913.73199999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-182.639000</v>
+        <v>-182.63900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>41416.849378</v>
+        <v>41416.849377999999</v>
       </c>
       <c r="G10" s="1">
-        <v>11.504680</v>
+        <v>11.50468</v>
       </c>
       <c r="H10" s="1">
-        <v>928.037000</v>
+        <v>928.03700000000003</v>
       </c>
       <c r="I10" s="1">
-        <v>-155.216000</v>
+        <v>-155.21600000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>41427.368035</v>
@@ -2567,226 +2983,226 @@
         <v>11.507602</v>
       </c>
       <c r="M10" s="1">
-        <v>948.289000</v>
+        <v>948.28899999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-113.212000</v>
+        <v>-113.212</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>41438.014701</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.510560</v>
+        <v>11.51056</v>
       </c>
       <c r="R10" s="1">
-        <v>954.746000</v>
+        <v>954.74599999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.462100</v>
+        <v>-99.462100000000007</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>41448.570024</v>
+        <v>41448.570024000001</v>
       </c>
       <c r="V10" s="1">
-        <v>11.513492</v>
+        <v>11.513491999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>961.206000</v>
+        <v>961.20600000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.494500</v>
+        <v>-87.494500000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>41458.940906</v>
+        <v>41458.940906000003</v>
       </c>
       <c r="AA10" s="1">
         <v>11.516372</v>
       </c>
       <c r="AB10" s="1">
-        <v>968.863000</v>
+        <v>968.86300000000006</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.377600</v>
+        <v>-79.377600000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>41469.451597</v>
+        <v>41469.451596999999</v>
       </c>
       <c r="AF10" s="1">
         <v>11.519292</v>
       </c>
       <c r="AG10" s="1">
-        <v>973.886000</v>
+        <v>973.88599999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.181300</v>
+        <v>-79.181299999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>41479.927102</v>
+        <v>41479.927102000001</v>
       </c>
       <c r="AK10" s="1">
         <v>11.522202</v>
       </c>
       <c r="AL10" s="1">
-        <v>982.314000</v>
+        <v>982.31399999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.540300</v>
+        <v>-87.540300000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>41490.612416</v>
+        <v>41490.612416000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.525170</v>
+        <v>11.525169999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>991.768000</v>
+        <v>991.76800000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.762000</v>
+        <v>-102.762</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>41501.672705</v>
+        <v>41501.672704999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>11.528242</v>
+        <v>11.528242000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.501000</v>
+        <v>-124.501</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>41512.724067</v>
+        <v>41512.724067000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.531312</v>
       </c>
       <c r="BA10" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.390000</v>
+        <v>-143.38999999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>41523.054741</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.534182</v>
+        <v>11.534181999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.967000</v>
+        <v>-228.96700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>41534.268792</v>
+        <v>41534.268792000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.537297</v>
+        <v>11.537297000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.805000</v>
+        <v>-366.80500000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>41545.258649</v>
+        <v>41545.258649000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.540350</v>
+        <v>11.54035</v>
       </c>
       <c r="BP10" s="1">
-        <v>1268.510000</v>
+        <v>1268.51</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.008000</v>
+        <v>-581.00800000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>41556.862056</v>
+        <v>41556.862055999998</v>
       </c>
       <c r="BT10" s="1">
         <v>11.543573</v>
       </c>
       <c r="BU10" s="1">
-        <v>1417.340000</v>
+        <v>1417.34</v>
       </c>
       <c r="BV10" s="1">
-        <v>-810.577000</v>
+        <v>-810.577</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>41567.752218</v>
+        <v>41567.752218000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>11.546598</v>
+        <v>11.546597999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1580.730000</v>
+        <v>1580.73</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1050.620000</v>
+        <v>-1050.6199999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>41579.426059</v>
+        <v>41579.426058999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>11.549841</v>
+        <v>11.549841000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1994.660000</v>
+        <v>1994.66</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1612.320000</v>
+        <v>-1612.32</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>41406.781121</v>
       </c>
@@ -2794,43 +3210,43 @@
         <v>11.501884</v>
       </c>
       <c r="C11" s="1">
-        <v>913.703000</v>
+        <v>913.70299999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-182.603000</v>
+        <v>-182.60300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>41417.275024</v>
+        <v>41417.275024000002</v>
       </c>
       <c r="G11" s="1">
         <v>11.504799</v>
       </c>
       <c r="H11" s="1">
-        <v>928.339000</v>
+        <v>928.33900000000006</v>
       </c>
       <c r="I11" s="1">
-        <v>-155.229000</v>
+        <v>-155.22900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>41427.790716</v>
+        <v>41427.790716000003</v>
       </c>
       <c r="L11" s="1">
-        <v>11.507720</v>
+        <v>11.507720000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>948.325000</v>
+        <v>948.32500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-113.184000</v>
+        <v>-113.184</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>41438.288966</v>
@@ -2839,43 +3255,43 @@
         <v>11.510636</v>
       </c>
       <c r="R11" s="1">
-        <v>954.677000</v>
+        <v>954.67700000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.522000</v>
+        <v>-99.522000000000006</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>41448.850265</v>
+        <v>41448.850265000001</v>
       </c>
       <c r="V11" s="1">
-        <v>11.513570</v>
+        <v>11.51357</v>
       </c>
       <c r="W11" s="1">
-        <v>961.379000</v>
+        <v>961.37900000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.480700</v>
+        <v>-87.480699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>41459.287887</v>
+        <v>41459.287886999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>11.516469</v>
+        <v>11.516469000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>968.885000</v>
+        <v>968.88499999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.359900</v>
+        <v>-79.359899999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>41469.793867</v>
@@ -2884,240 +3300,240 @@
         <v>11.519387</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.866000</v>
+        <v>973.86599999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.250100</v>
+        <v>-79.250100000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>41480.278306</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.522300</v>
+        <v>11.5223</v>
       </c>
       <c r="AL11" s="1">
-        <v>982.327000</v>
+        <v>982.327</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.556600</v>
+        <v>-87.556600000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>41491.336577</v>
+        <v>41491.336577000002</v>
       </c>
       <c r="AP11" s="1">
         <v>11.525371</v>
       </c>
       <c r="AQ11" s="1">
-        <v>991.766000</v>
+        <v>991.76599999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.781000</v>
+        <v>-102.78100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>41502.064080</v>
+        <v>41502.064079999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>11.528351</v>
+        <v>11.528351000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>41513.085650</v>
+        <v>41513.085650000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.531413</v>
+        <v>11.531413000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.414000</v>
+        <v>-143.41399999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>41523.435701</v>
+        <v>41523.435701000002</v>
       </c>
       <c r="BE11" s="1">
         <v>11.534288</v>
       </c>
       <c r="BF11" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.956000</v>
+        <v>-228.95599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>41534.953765</v>
+        <v>41534.953764999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>11.537487</v>
       </c>
       <c r="BK11" s="1">
-        <v>1137.170000</v>
+        <v>1137.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.793000</v>
+        <v>-366.79300000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>41545.968422</v>
+        <v>41545.968421999998</v>
       </c>
       <c r="BO11" s="1">
         <v>11.540547</v>
       </c>
       <c r="BP11" s="1">
-        <v>1268.580000</v>
+        <v>1268.58</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.958000</v>
+        <v>-580.95799999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>41556.989034</v>
+        <v>41556.989033999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.543608</v>
+        <v>11.543608000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1417.330000</v>
+        <v>1417.33</v>
       </c>
       <c r="BV11" s="1">
-        <v>-810.682000</v>
+        <v>-810.68200000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>41568.178777</v>
+        <v>41568.178777000001</v>
       </c>
       <c r="BY11" s="1">
         <v>11.546716</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1580.530000</v>
+        <v>1580.53</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>41579.942950</v>
+        <v>41579.942949999997</v>
       </c>
       <c r="CD11" s="1">
         <v>11.549984</v>
       </c>
       <c r="CE11" s="1">
-        <v>1994.650000</v>
+        <v>1994.65</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1612.450000</v>
+        <v>-1612.45</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>41407.217103</v>
+        <v>41407.217103000003</v>
       </c>
       <c r="B12" s="1">
         <v>11.502005</v>
       </c>
       <c r="C12" s="1">
-        <v>913.682000</v>
+        <v>913.68200000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-182.543000</v>
+        <v>-182.54300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>41417.567088</v>
+        <v>41417.567088000003</v>
       </c>
       <c r="G12" s="1">
-        <v>11.504880</v>
+        <v>11.50488</v>
       </c>
       <c r="H12" s="1">
-        <v>928.305000</v>
+        <v>928.30499999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-155.800000</v>
+        <v>-155.80000000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>41428.081312</v>
+        <v>41428.081312000002</v>
       </c>
       <c r="L12" s="1">
-        <v>11.507800</v>
+        <v>11.5078</v>
       </c>
       <c r="M12" s="1">
-        <v>948.359000</v>
+        <v>948.35900000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-113.067000</v>
+        <v>-113.06699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>41438.639136</v>
+        <v>41438.639135999998</v>
       </c>
       <c r="Q12" s="1">
         <v>11.510733</v>
       </c>
       <c r="R12" s="1">
-        <v>954.671000</v>
+        <v>954.67100000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.498700</v>
+        <v>-99.498699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>41449.187079</v>
+        <v>41449.187079000003</v>
       </c>
       <c r="V12" s="1">
-        <v>11.513663</v>
+        <v>11.513662999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>961.147000</v>
+        <v>961.14700000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.526800</v>
+        <v>-87.526799999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>41459.641722</v>
@@ -3126,300 +3542,300 @@
         <v>11.516567</v>
       </c>
       <c r="AB12" s="1">
-        <v>968.884000</v>
+        <v>968.88400000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.344400</v>
+        <v>-79.344399999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>41470.481788</v>
+        <v>41470.481787999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>11.519578</v>
+        <v>11.519577999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>973.891000</v>
+        <v>973.89099999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.213000</v>
+        <v>-79.212999999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>41480.973667</v>
+        <v>41480.973666999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.522493</v>
+        <v>11.522493000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>982.299000</v>
+        <v>982.29899999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.543000</v>
+        <v>-87.543000000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>41491.719035</v>
+        <v>41491.719035000002</v>
       </c>
       <c r="AP12" s="1">
         <v>11.525478</v>
       </c>
       <c r="AQ12" s="1">
-        <v>991.775000</v>
+        <v>991.77499999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.787000</v>
+        <v>-102.78700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>41502.429602</v>
+        <v>41502.429601999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>11.528453</v>
+        <v>11.528453000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.515000</v>
+        <v>-124.515</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>41513.442770</v>
+        <v>41513.442770000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.531512</v>
+        <v>11.531511999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1012.950000</v>
+        <v>1012.95</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.420000</v>
+        <v>-143.41999999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>41524.114692</v>
+        <v>41524.114692000003</v>
       </c>
       <c r="BE12" s="1">
         <v>11.534476</v>
       </c>
       <c r="BF12" s="1">
-        <v>1058.070000</v>
+        <v>1058.07</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.934000</v>
+        <v>-228.934</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>41535.423973</v>
+        <v>41535.423972999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.537618</v>
       </c>
       <c r="BK12" s="1">
-        <v>1137.210000</v>
+        <v>1137.21</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.799000</v>
+        <v>-366.79899999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>41546.080023</v>
+        <v>41546.080023000002</v>
       </c>
       <c r="BO12" s="1">
         <v>11.540578</v>
       </c>
       <c r="BP12" s="1">
-        <v>1268.550000</v>
+        <v>1268.55</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.013000</v>
+        <v>-581.01300000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>41557.399256</v>
+        <v>41557.399255999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.543722</v>
+        <v>11.543722000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1417.320000</v>
+        <v>1417.32</v>
       </c>
       <c r="BV12" s="1">
-        <v>-810.760000</v>
+        <v>-810.76</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>41568.597403</v>
       </c>
       <c r="BY12" s="1">
-        <v>11.546833</v>
+        <v>11.546832999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1580.330000</v>
+        <v>1580.33</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1050.480000</v>
+        <v>-1050.48</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>41580.491497</v>
+        <v>41580.491497000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.550137</v>
+        <v>11.550136999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1994.980000</v>
+        <v>1994.98</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1611.610000</v>
+        <v>-1611.61</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>41407.480446</v>
+        <v>41407.480446000001</v>
       </c>
       <c r="B13" s="1">
-        <v>11.502078</v>
+        <v>11.502077999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>913.994000</v>
+        <v>913.99400000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>-182.721000</v>
+        <v>-182.721</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>41417.908393</v>
+        <v>41417.908392999998</v>
       </c>
       <c r="G13" s="1">
         <v>11.504975</v>
       </c>
       <c r="H13" s="1">
-        <v>928.304000</v>
+        <v>928.30399999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-155.638000</v>
+        <v>-155.63800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>41428.426500</v>
+        <v>41428.426500000001</v>
       </c>
       <c r="L13" s="1">
-        <v>11.507896</v>
+        <v>11.507896000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>948.406000</v>
+        <v>948.40599999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-113.128000</v>
+        <v>-113.128</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>41438.987316</v>
+        <v>41438.987315999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.510830</v>
+        <v>11.51083</v>
       </c>
       <c r="R13" s="1">
-        <v>954.637000</v>
+        <v>954.63699999999994</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.491300</v>
+        <v>-99.491299999999995</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>41449.873046</v>
+        <v>41449.873046000001</v>
       </c>
       <c r="V13" s="1">
         <v>11.513854</v>
       </c>
       <c r="W13" s="1">
-        <v>961.282000</v>
+        <v>961.28200000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.503900</v>
+        <v>-87.503900000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>41460.335128</v>
+        <v>41460.335127999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.516760</v>
+        <v>11.51676</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.821000</v>
+        <v>968.82100000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.308800</v>
+        <v>-79.308800000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>41470.820418</v>
+        <v>41470.820418000003</v>
       </c>
       <c r="AF13" s="1">
         <v>11.519672</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.877000</v>
+        <v>973.87699999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.227700</v>
+        <v>-79.227699999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>41481.320860</v>
+        <v>41481.32086</v>
       </c>
       <c r="AK13" s="1">
         <v>11.522589</v>
       </c>
       <c r="AL13" s="1">
-        <v>982.287000</v>
+        <v>982.28700000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.541200</v>
+        <v>-87.541200000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>41492.076642</v>
@@ -3428,88 +3844,88 @@
         <v>11.525577</v>
       </c>
       <c r="AQ13" s="1">
-        <v>991.778000</v>
+        <v>991.77800000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.761000</v>
+        <v>-102.761</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>41503.109648</v>
+        <v>41503.109647999998</v>
       </c>
       <c r="AU13" s="1">
         <v>11.528642</v>
       </c>
       <c r="AV13" s="1">
-        <v>1003.300000</v>
+        <v>1003.3</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.513000</v>
+        <v>-124.51300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>41513.984899</v>
+        <v>41513.984899000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.531662</v>
+        <v>11.531662000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1012.910000</v>
+        <v>1012.91</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.408000</v>
+        <v>-143.40799999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>41524.519955</v>
+        <v>41524.519955000003</v>
       </c>
       <c r="BE13" s="1">
         <v>11.534589</v>
       </c>
       <c r="BF13" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.940000</v>
+        <v>-228.94</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>41535.812869</v>
+        <v>41535.812869000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.537726</v>
+        <v>11.537725999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1137.150000</v>
+        <v>1137.1500000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.824000</v>
+        <v>-366.82400000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>41546.502627</v>
+        <v>41546.502627000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.540695</v>
+        <v>11.540694999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1268.600000</v>
+        <v>1268.5999999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.988000</v>
+        <v>-580.98800000000006</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>41557.829285</v>
@@ -3518,165 +3934,165 @@
         <v>11.543841</v>
       </c>
       <c r="BU13" s="1">
-        <v>1417.250000</v>
+        <v>1417.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-810.842000</v>
+        <v>-810.84199999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>41569.044983</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.546957</v>
+        <v>11.546957000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1580.380000</v>
+        <v>1580.38</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>41581.022185</v>
+        <v>41581.022185000002</v>
       </c>
       <c r="CD13" s="1">
         <v>11.550284</v>
       </c>
       <c r="CE13" s="1">
-        <v>1995.440000</v>
+        <v>1995.44</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1612.940000</v>
+        <v>-1612.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>41407.821694</v>
+        <v>41407.821693999998</v>
       </c>
       <c r="B14" s="1">
-        <v>11.502173</v>
+        <v>11.502173000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>913.700000</v>
+        <v>913.7</v>
       </c>
       <c r="D14" s="1">
-        <v>-182.578000</v>
+        <v>-182.578</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>41418.253583</v>
+        <v>41418.253582999998</v>
       </c>
       <c r="G14" s="1">
-        <v>11.505070</v>
+        <v>11.50507</v>
       </c>
       <c r="H14" s="1">
-        <v>928.118000</v>
+        <v>928.11800000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-155.134000</v>
+        <v>-155.13399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>41428.772707</v>
+        <v>41428.772706999996</v>
       </c>
       <c r="L14" s="1">
         <v>11.507992</v>
       </c>
       <c r="M14" s="1">
-        <v>948.374000</v>
+        <v>948.37400000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-113.230000</v>
+        <v>-113.23</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>41439.681715</v>
+        <v>41439.681714999999</v>
       </c>
       <c r="Q14" s="1">
         <v>11.511023</v>
       </c>
       <c r="R14" s="1">
-        <v>954.679000</v>
+        <v>954.67899999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.477000</v>
+        <v>-99.477000000000004</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>41450.218229</v>
+        <v>41450.218228999998</v>
       </c>
       <c r="V14" s="1">
-        <v>11.513950</v>
+        <v>11.513949999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>961.181000</v>
+        <v>961.18100000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.480700</v>
+        <v>-87.480699999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>41460.685832</v>
+        <v>41460.685832000003</v>
       </c>
       <c r="AA14" s="1">
         <v>11.516857</v>
       </c>
       <c r="AB14" s="1">
-        <v>968.832000</v>
+        <v>968.83199999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.340600</v>
+        <v>-79.340599999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>41471.164778</v>
+        <v>41471.164777999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.519768</v>
+        <v>11.519767999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>973.896000</v>
+        <v>973.89599999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.238100</v>
+        <v>-79.238100000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>41481.985501</v>
+        <v>41481.985501000003</v>
       </c>
       <c r="AK14" s="1">
         <v>11.522774</v>
       </c>
       <c r="AL14" s="1">
-        <v>982.321000</v>
+        <v>982.32100000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.557500</v>
+        <v>-87.557500000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>41492.743725</v>
@@ -3685,679 +4101,679 @@
         <v>11.525762</v>
       </c>
       <c r="AQ14" s="1">
-        <v>991.780000</v>
+        <v>991.78</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>41503.523776</v>
+        <v>41503.523776000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.528757</v>
+        <v>11.528757000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.515000</v>
+        <v>-124.515</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>41514.159490</v>
+        <v>41514.159489999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.531711</v>
       </c>
       <c r="BA14" s="1">
-        <v>1012.920000</v>
+        <v>1012.92</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.406000</v>
+        <v>-143.40600000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>41524.910275</v>
+        <v>41524.910275000002</v>
       </c>
       <c r="BE14" s="1">
         <v>11.534697</v>
       </c>
       <c r="BF14" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.930000</v>
+        <v>-228.93</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>41536.188835</v>
+        <v>41536.188835000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.537830</v>
+        <v>11.53783</v>
       </c>
       <c r="BK14" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.833000</v>
+        <v>-366.83300000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>41547.099799</v>
+        <v>41547.099799000003</v>
       </c>
       <c r="BO14" s="1">
         <v>11.540861</v>
       </c>
       <c r="BP14" s="1">
-        <v>1268.590000</v>
+        <v>1268.5899999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.987000</v>
+        <v>-580.98699999999997</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>41558.251848</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.543959</v>
+        <v>11.543958999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1417.290000</v>
+        <v>1417.29</v>
       </c>
       <c r="BV14" s="1">
-        <v>-810.899000</v>
+        <v>-810.899</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>41569.465400</v>
+        <v>41569.465400000001</v>
       </c>
       <c r="BY14" s="1">
         <v>11.547074</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1580.470000</v>
+        <v>1580.47</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1050.610000</v>
+        <v>-1050.6099999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>41581.537528</v>
+        <v>41581.537528000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.550427</v>
+        <v>11.550427000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1996.810000</v>
+        <v>1996.81</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1612.270000</v>
+        <v>-1612.27</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>41408.163934</v>
+        <v>41408.163933999997</v>
       </c>
       <c r="B15" s="1">
-        <v>11.502268</v>
+        <v>11.502268000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>913.871000</v>
+        <v>913.87099999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-182.742000</v>
+        <v>-182.74199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>41418.943487</v>
+        <v>41418.943486999997</v>
       </c>
       <c r="G15" s="1">
         <v>11.505262</v>
       </c>
       <c r="H15" s="1">
-        <v>928.251000</v>
+        <v>928.25099999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-155.498000</v>
+        <v>-155.49799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>41429.468130</v>
+        <v>41429.468130000001</v>
       </c>
       <c r="L15" s="1">
         <v>11.508186</v>
       </c>
       <c r="M15" s="1">
-        <v>948.390000</v>
+        <v>948.39</v>
       </c>
       <c r="N15" s="1">
-        <v>-113.185000</v>
+        <v>-113.185</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>41440.033379</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.511120</v>
+        <v>11.51112</v>
       </c>
       <c r="R15" s="1">
-        <v>954.722000</v>
+        <v>954.72199999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.495800</v>
+        <v>-99.495800000000003</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>41450.563446</v>
       </c>
       <c r="V15" s="1">
-        <v>11.514045</v>
+        <v>11.514044999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>961.257000</v>
+        <v>961.25699999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.536900</v>
+        <v>-87.536900000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>41461.030519</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.516953</v>
+        <v>11.516953000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.868000</v>
+        <v>968.86800000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.289400</v>
+        <v>-79.289400000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>41471.827959</v>
+        <v>41471.827959000002</v>
       </c>
       <c r="AF15" s="1">
         <v>11.519952</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.845000</v>
+        <v>973.84500000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.194600</v>
+        <v>-79.194599999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>41482.367454</v>
+        <v>41482.367453999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.522880</v>
+        <v>11.522880000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>982.304000</v>
+        <v>982.30399999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.542800</v>
+        <v>-87.5428</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>41493.157389</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.525877</v>
+        <v>11.525876999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>991.797000</v>
+        <v>991.79700000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.779000</v>
+        <v>-102.779</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>41503.887871</v>
+        <v>41503.887870999999</v>
       </c>
       <c r="AU15" s="1">
         <v>11.528858</v>
       </c>
       <c r="AV15" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.508000</v>
+        <v>-124.508</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>41514.519088</v>
+        <v>41514.519088000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.531811</v>
+        <v>11.531810999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.389000</v>
+        <v>-143.38900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>41525.273380</v>
+        <v>41525.273379999999</v>
       </c>
       <c r="BE15" s="1">
         <v>11.534798</v>
       </c>
       <c r="BF15" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.955000</v>
+        <v>-228.95500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>41536.615396</v>
+        <v>41536.615396000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>11.537949</v>
+        <v>11.537948999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1137.160000</v>
+        <v>1137.1600000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.783000</v>
+        <v>-366.78300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>41547.319028</v>
+        <v>41547.319027999998</v>
       </c>
       <c r="BO15" s="1">
         <v>11.540922</v>
       </c>
       <c r="BP15" s="1">
-        <v>1268.590000</v>
+        <v>1268.5899999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.011000</v>
+        <v>-581.01099999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>41558.658597</v>
+        <v>41558.658597000001</v>
       </c>
       <c r="BT15" s="1">
         <v>11.544072</v>
       </c>
       <c r="BU15" s="1">
-        <v>1417.130000</v>
+        <v>1417.13</v>
       </c>
       <c r="BV15" s="1">
-        <v>-810.924000</v>
+        <v>-810.92399999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>41569.888983</v>
+        <v>41569.888982999997</v>
       </c>
       <c r="BY15" s="1">
         <v>11.547191</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1580.550000</v>
+        <v>1580.55</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1050.700000</v>
+        <v>-1050.7</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>41582.059350</v>
+        <v>41582.059350000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.550572</v>
+        <v>11.550572000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1996.150000</v>
+        <v>1996.15</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1610.930000</v>
+        <v>-1610.93</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>41408.848908</v>
       </c>
       <c r="B16" s="1">
-        <v>11.502458</v>
+        <v>11.502458000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>913.777000</v>
+        <v>913.77700000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-182.735000</v>
+        <v>-182.73500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>41419.288206</v>
+        <v>41419.288205999997</v>
       </c>
       <c r="G16" s="1">
-        <v>11.505358</v>
+        <v>11.505357999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>928.479000</v>
+        <v>928.47900000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-155.554000</v>
+        <v>-155.554</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>41429.820787</v>
+        <v>41429.820786999997</v>
       </c>
       <c r="L16" s="1">
         <v>11.508284</v>
       </c>
       <c r="M16" s="1">
-        <v>948.337000</v>
+        <v>948.33699999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-113.050000</v>
+        <v>-113.05</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>41440.380615</v>
+        <v>41440.380615000002</v>
       </c>
       <c r="Q16" s="1">
         <v>11.511217</v>
       </c>
       <c r="R16" s="1">
-        <v>954.670000</v>
+        <v>954.67</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.538800</v>
+        <v>-99.538799999999995</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>41451.226596</v>
       </c>
       <c r="V16" s="1">
-        <v>11.514230</v>
+        <v>11.51423</v>
       </c>
       <c r="W16" s="1">
-        <v>961.223000</v>
+        <v>961.22299999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.408600</v>
+        <v>-87.408600000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>41461.692678</v>
+        <v>41461.692677999999</v>
       </c>
       <c r="AA16" s="1">
         <v>11.517137</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.826000</v>
+        <v>968.82600000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.332100</v>
+        <v>-79.332099999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>41472.195464</v>
+        <v>41472.195463999997</v>
       </c>
       <c r="AF16" s="1">
         <v>11.520054</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.875000</v>
+        <v>973.875</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.183500</v>
+        <v>-79.183499999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>41482.718586</v>
+        <v>41482.718586000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.522977</v>
+        <v>11.522976999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>982.284000</v>
+        <v>982.28399999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.558400</v>
+        <v>-87.558400000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>41493.537821</v>
+        <v>41493.537820999998</v>
       </c>
       <c r="AP16" s="1">
         <v>11.525983</v>
       </c>
       <c r="AQ16" s="1">
-        <v>991.748000</v>
+        <v>991.74800000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.761000</v>
+        <v>-102.761</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>41504.252926</v>
+        <v>41504.252926000001</v>
       </c>
       <c r="AU16" s="1">
         <v>11.528959</v>
       </c>
       <c r="AV16" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.521000</v>
+        <v>-124.521</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>41514.940192</v>
+        <v>41514.940192000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>11.531928</v>
+        <v>11.531928000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1012.920000</v>
+        <v>1012.92</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.408000</v>
+        <v>-143.40799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>41525.696433</v>
+        <v>41525.696432999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.534916</v>
+        <v>11.534916000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>41536.941732</v>
+        <v>41536.941731999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>11.538039</v>
+        <v>11.538038999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1137.170000</v>
+        <v>1137.17</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.789000</v>
+        <v>-366.78899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>41547.719301</v>
+        <v>41547.719300999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.541033</v>
+        <v>11.541033000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1268.520000</v>
+        <v>1268.52</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.968000</v>
+        <v>-580.96799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>41559.072231</v>
+        <v>41559.072230999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.544187</v>
+        <v>11.544187000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1417.110000</v>
+        <v>1417.11</v>
       </c>
       <c r="BV16" s="1">
-        <v>-810.974000</v>
+        <v>-810.97400000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>41570.335382</v>
+        <v>41570.335381999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.547315</v>
+        <v>11.547314999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1580.500000</v>
+        <v>1580.5</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1050.550000</v>
+        <v>-1050.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>41582.577664</v>
+        <v>41582.577663999997</v>
       </c>
       <c r="CD16" s="1">
         <v>11.550716</v>
       </c>
       <c r="CE16" s="1">
-        <v>1996.720000</v>
+        <v>1996.72</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1611.280000</v>
+        <v>-1611.28</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>41409.189660</v>
+        <v>41409.189659999996</v>
       </c>
       <c r="B17" s="1">
-        <v>11.502553</v>
+        <v>11.502553000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>913.608000</v>
+        <v>913.60799999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-182.770000</v>
+        <v>-182.77</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>41419.639374</v>
+        <v>41419.639373999998</v>
       </c>
       <c r="G17" s="1">
         <v>11.505455</v>
       </c>
       <c r="H17" s="1">
-        <v>929.152000</v>
+        <v>929.15200000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-155.713000</v>
+        <v>-155.71299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>41430.164976</v>
@@ -4366,285 +4782,285 @@
         <v>11.508379</v>
       </c>
       <c r="M17" s="1">
-        <v>948.407000</v>
+        <v>948.40700000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-113.163000</v>
+        <v>-113.163</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>41441.042243</v>
+        <v>41441.042243000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.511401</v>
+        <v>11.511400999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>954.668000</v>
+        <v>954.66800000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.534900</v>
+        <v>-99.534899999999993</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>41451.592149</v>
+        <v>41451.592148999996</v>
       </c>
       <c r="V17" s="1">
         <v>11.514331</v>
       </c>
       <c r="W17" s="1">
-        <v>961.280000</v>
+        <v>961.28</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.517600</v>
+        <v>-87.517600000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>41462.079589</v>
+        <v>41462.079589000001</v>
       </c>
       <c r="AA17" s="1">
         <v>11.517244</v>
       </c>
       <c r="AB17" s="1">
-        <v>968.790000</v>
+        <v>968.79</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.412400</v>
+        <v>-79.412400000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>41472.538697</v>
+        <v>41472.538697000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.520150</v>
+        <v>11.520149999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>973.887000</v>
+        <v>973.88699999999994</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.196500</v>
+        <v>-79.1965</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>41483.066314</v>
+        <v>41483.066314000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.523074</v>
+        <v>11.523073999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>982.334000</v>
+        <v>982.33399999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.572800</v>
+        <v>-87.572800000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>41493.899405</v>
+        <v>41493.899404999996</v>
       </c>
       <c r="AP17" s="1">
         <v>11.526083</v>
       </c>
       <c r="AQ17" s="1">
-        <v>991.765000</v>
+        <v>991.76499999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.766000</v>
+        <v>-102.76600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>41504.679453</v>
+        <v>41504.679452999997</v>
       </c>
       <c r="AU17" s="1">
         <v>11.529078</v>
       </c>
       <c r="AV17" s="1">
-        <v>1003.290000</v>
+        <v>1003.29</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.520000</v>
+        <v>-124.52</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>41515.237295</v>
+        <v>41515.237294999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>11.532010</v>
+        <v>11.53201</v>
       </c>
       <c r="BA17" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.386000</v>
+        <v>-143.386</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>41525.992082</v>
+        <v>41525.992081999997</v>
       </c>
       <c r="BE17" s="1">
         <v>11.534998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1058.070000</v>
+        <v>1058.07</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.932000</v>
+        <v>-228.93199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>41537.321170</v>
+        <v>41537.321170000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.538145</v>
       </c>
       <c r="BK17" s="1">
-        <v>1137.210000</v>
+        <v>1137.21</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.788000</v>
+        <v>-366.78800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>41548.138954</v>
+        <v>41548.138954000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.541150</v>
+        <v>11.54115</v>
       </c>
       <c r="BP17" s="1">
-        <v>1268.520000</v>
+        <v>1268.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.000000</v>
+        <v>-581</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>41559.487876</v>
+        <v>41559.487875999999</v>
       </c>
       <c r="BT17" s="1">
         <v>11.544302</v>
       </c>
       <c r="BU17" s="1">
-        <v>1417.110000</v>
+        <v>1417.11</v>
       </c>
       <c r="BV17" s="1">
-        <v>-810.986000</v>
+        <v>-810.98599999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>41570.770871</v>
+        <v>41570.770871000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>11.547436</v>
+        <v>11.547435999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1580.350000</v>
+        <v>1580.35</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1050.610000</v>
+        <v>-1050.6099999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>41583.128694</v>
+        <v>41583.128693999999</v>
       </c>
       <c r="CD17" s="1">
         <v>11.550869</v>
       </c>
       <c r="CE17" s="1">
-        <v>1996.640000</v>
+        <v>1996.64</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1612.260000</v>
+        <v>-1612.26</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>41409.531435</v>
+        <v>41409.531434999997</v>
       </c>
       <c r="B18" s="1">
-        <v>11.502648</v>
+        <v>11.502648000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>913.815000</v>
+        <v>913.81500000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-182.595000</v>
+        <v>-182.595</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>41420.303021</v>
       </c>
       <c r="G18" s="1">
-        <v>11.505640</v>
+        <v>11.50564</v>
       </c>
       <c r="H18" s="1">
-        <v>928.235000</v>
+        <v>928.23500000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-155.329000</v>
+        <v>-155.32900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>41430.842544</v>
+        <v>41430.842543999999</v>
       </c>
       <c r="L18" s="1">
-        <v>11.508567</v>
+        <v>11.508566999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>948.331000</v>
+        <v>948.33100000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-113.165000</v>
+        <v>-113.16500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>41441.425649</v>
+        <v>41441.425648999997</v>
       </c>
       <c r="Q18" s="1">
         <v>11.511507</v>
       </c>
       <c r="R18" s="1">
-        <v>954.664000</v>
+        <v>954.66399999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.503000</v>
+        <v>-99.503</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>41451.936405</v>
@@ -4653,43 +5069,43 @@
         <v>11.514427</v>
       </c>
       <c r="W18" s="1">
-        <v>961.155000</v>
+        <v>961.15499999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.496200</v>
+        <v>-87.496200000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>41462.426757</v>
+        <v>41462.426757000001</v>
       </c>
       <c r="AA18" s="1">
         <v>11.517341</v>
       </c>
       <c r="AB18" s="1">
-        <v>968.836000</v>
+        <v>968.83600000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.352200</v>
+        <v>-79.352199999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>41472.881929</v>
+        <v>41472.881929000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.520245</v>
+        <v>11.520244999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.886000</v>
+        <v>973.88599999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.212000</v>
+        <v>-79.212000000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>41483.499785</v>
@@ -4698,315 +5114,315 @@
         <v>11.523194</v>
       </c>
       <c r="AL18" s="1">
-        <v>982.305000</v>
+        <v>982.30499999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.565800</v>
+        <v>-87.565799999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>41494.326955</v>
+        <v>41494.326954999997</v>
       </c>
       <c r="AP18" s="1">
         <v>11.526202</v>
       </c>
       <c r="AQ18" s="1">
-        <v>991.774000</v>
+        <v>991.774</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.770000</v>
+        <v>-102.77</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>41504.982014</v>
+        <v>41504.982014000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>11.529162</v>
+        <v>11.529161999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.532000</v>
+        <v>-124.532</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>41515.593919</v>
+        <v>41515.593918999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>11.532109</v>
       </c>
       <c r="BA18" s="1">
-        <v>1012.950000</v>
+        <v>1012.95</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.377000</v>
+        <v>-143.37700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>41526.352682</v>
+        <v>41526.352681999997</v>
       </c>
       <c r="BE18" s="1">
         <v>11.535098</v>
       </c>
       <c r="BF18" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.950000</v>
+        <v>-228.95</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>41537.708579</v>
+        <v>41537.708578999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>11.538252</v>
       </c>
       <c r="BK18" s="1">
-        <v>1137.170000</v>
+        <v>1137.17</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.807000</v>
+        <v>-366.80700000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>41548.960291</v>
+        <v>41548.960291000003</v>
       </c>
       <c r="BO18" s="1">
         <v>11.541378</v>
       </c>
       <c r="BP18" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.987000</v>
+        <v>-580.98699999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>41559.908520</v>
+        <v>41559.908519999997</v>
       </c>
       <c r="BT18" s="1">
         <v>11.544419</v>
       </c>
       <c r="BU18" s="1">
-        <v>1416.990000</v>
+        <v>1416.99</v>
       </c>
       <c r="BV18" s="1">
-        <v>-811.071000</v>
+        <v>-811.07100000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>41571.185525</v>
+        <v>41571.185525000001</v>
       </c>
       <c r="BY18" s="1">
         <v>11.547552</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1580.490000</v>
+        <v>1580.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1050.520000</v>
+        <v>-1050.52</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>41583.658421</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.551016</v>
+        <v>11.551016000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1995.990000</v>
+        <v>1995.99</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1610.890000</v>
+        <v>-1610.89</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>41410.195083</v>
+        <v>41410.195082999999</v>
       </c>
       <c r="B19" s="1">
         <v>11.502832</v>
       </c>
       <c r="C19" s="1">
-        <v>913.785000</v>
+        <v>913.78499999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-182.689000</v>
+        <v>-182.68899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>41420.673038</v>
+        <v>41420.673038000001</v>
       </c>
       <c r="G19" s="1">
-        <v>11.505743</v>
+        <v>11.505743000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>927.959000</v>
+        <v>927.95899999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-155.454000</v>
+        <v>-155.45400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>41431.202607</v>
+        <v>41431.202606999999</v>
       </c>
       <c r="L19" s="1">
-        <v>11.508667</v>
+        <v>11.508667000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>948.468000</v>
+        <v>948.46799999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-113.041000</v>
+        <v>-113.041</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>41441.776320</v>
+        <v>41441.776319999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>11.511605</v>
+        <v>11.511604999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>954.644000</v>
+        <v>954.64400000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.484300</v>
+        <v>-99.484300000000005</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>41452.279107</v>
+        <v>41452.279107000002</v>
       </c>
       <c r="V19" s="1">
-        <v>11.514522</v>
+        <v>11.514521999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>961.222000</v>
+        <v>961.22199999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.471800</v>
+        <v>-87.471800000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>41462.772469</v>
+        <v>41462.772469000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.517437</v>
+        <v>11.517436999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>968.828000</v>
+        <v>968.82799999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.358400</v>
+        <v>-79.358400000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>41473.314440</v>
+        <v>41473.314440000002</v>
       </c>
       <c r="AF19" s="1">
         <v>11.520365</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.874000</v>
+        <v>973.87400000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.218600</v>
+        <v>-79.218599999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>41483.759229</v>
+        <v>41483.759229000003</v>
       </c>
       <c r="AK19" s="1">
         <v>11.523266</v>
       </c>
       <c r="AL19" s="1">
-        <v>982.319000</v>
+        <v>982.31899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.545100</v>
+        <v>-87.545100000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>41494.620123</v>
+        <v>41494.620123000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.526283</v>
+        <v>11.526282999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>991.768000</v>
+        <v>991.76800000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>41505.345612</v>
+        <v>41505.345611999997</v>
       </c>
       <c r="AU19" s="1">
         <v>11.529263</v>
       </c>
       <c r="AV19" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.524000</v>
+        <v>-124.524</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>41515.954047</v>
+        <v>41515.954046999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.532209</v>
       </c>
       <c r="BA19" s="1">
-        <v>1012.920000</v>
+        <v>1012.92</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.407000</v>
+        <v>-143.40700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>41526.718192</v>
@@ -5015,362 +5431,362 @@
         <v>11.535199</v>
       </c>
       <c r="BF19" s="1">
-        <v>1058.080000</v>
+        <v>1058.08</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.952000</v>
+        <v>-228.952</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>41538.465969</v>
+        <v>41538.465968999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.538463</v>
       </c>
       <c r="BK19" s="1">
-        <v>1137.140000</v>
+        <v>1137.1400000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.804000</v>
+        <v>-366.80399999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>41549.373494</v>
+        <v>41549.373493999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>11.541493</v>
+        <v>11.541492999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.995000</v>
+        <v>-580.995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>41560.335573</v>
+        <v>41560.335572999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.544538</v>
+        <v>11.544537999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1416.940000</v>
+        <v>1416.94</v>
       </c>
       <c r="BV19" s="1">
-        <v>-811.012000</v>
+        <v>-811.01199999999994</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>41571.631927</v>
+        <v>41571.631927000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.547676</v>
+        <v>11.547675999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1580.450000</v>
+        <v>1580.45</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1050.790000</v>
+        <v>-1050.79</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>41584.486772</v>
+        <v>41584.486771999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>11.551246</v>
+        <v>11.551246000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1994.550000</v>
+        <v>1994.55</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1611.720000</v>
+        <v>-1611.72</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>41410.554683</v>
+        <v>41410.554683000002</v>
       </c>
       <c r="B20" s="1">
-        <v>11.502932</v>
+        <v>11.502931999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>913.645000</v>
+        <v>913.64499999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-182.820000</v>
+        <v>-182.82</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>41421.017260</v>
+        <v>41421.017260000001</v>
       </c>
       <c r="G20" s="1">
-        <v>11.505838</v>
+        <v>11.505838000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>928.318000</v>
+        <v>928.31799999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-155.298000</v>
+        <v>-155.298</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>41431.547328</v>
+        <v>41431.547328000001</v>
       </c>
       <c r="L20" s="1">
         <v>11.508763</v>
       </c>
       <c r="M20" s="1">
-        <v>948.345000</v>
+        <v>948.34500000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-113.143000</v>
+        <v>-113.143</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>41442.126496</v>
+        <v>41442.126495999997</v>
       </c>
       <c r="Q20" s="1">
         <v>11.511702</v>
       </c>
       <c r="R20" s="1">
-        <v>954.676000</v>
+        <v>954.67600000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.490400</v>
+        <v>-99.490399999999994</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>41452.695746</v>
+        <v>41452.695745999998</v>
       </c>
       <c r="V20" s="1">
         <v>11.514638</v>
       </c>
       <c r="W20" s="1">
-        <v>961.156000</v>
+        <v>961.15599999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.531000</v>
+        <v>-87.531000000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>41463.193572</v>
+        <v>41463.193571999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.517554</v>
+        <v>11.517554000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>968.970000</v>
+        <v>968.97</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.247800</v>
+        <v>-79.247799999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>41473.594217</v>
+        <v>41473.594216999998</v>
       </c>
       <c r="AF20" s="1">
         <v>11.520443</v>
       </c>
       <c r="AG20" s="1">
-        <v>973.896000</v>
+        <v>973.89599999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.204400</v>
+        <v>-79.204400000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>41484.110893</v>
+        <v>41484.110892999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.523364</v>
+        <v>11.523364000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>982.328000</v>
+        <v>982.32799999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.538500</v>
+        <v>-87.538499999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>41494.982171</v>
+        <v>41494.982171000003</v>
       </c>
       <c r="AP20" s="1">
         <v>11.526384</v>
       </c>
       <c r="AQ20" s="1">
-        <v>991.794000</v>
+        <v>991.79399999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.765000</v>
+        <v>-102.765</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>41505.708158</v>
+        <v>41505.708158000001</v>
       </c>
       <c r="AU20" s="1">
         <v>11.529363</v>
       </c>
       <c r="AV20" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.528000</v>
+        <v>-124.52800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>41516.676686</v>
+        <v>41516.676685999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.532410</v>
+        <v>11.53241</v>
       </c>
       <c r="BA20" s="1">
-        <v>1012.920000</v>
+        <v>1012.92</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.386000</v>
+        <v>-143.386</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>41527.437402</v>
+        <v>41527.437402000003</v>
       </c>
       <c r="BE20" s="1">
         <v>11.535399</v>
       </c>
       <c r="BF20" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>41538.864722</v>
+        <v>41538.864721999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.538574</v>
+        <v>11.538574000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1137.150000</v>
+        <v>1137.1500000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.776000</v>
+        <v>-366.77600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>41549.769268</v>
+        <v>41549.769267999996</v>
       </c>
       <c r="BO20" s="1">
         <v>11.541603</v>
       </c>
       <c r="BP20" s="1">
-        <v>1268.570000</v>
+        <v>1268.57</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.976000</v>
+        <v>-580.976</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>41560.767588</v>
+        <v>41560.767588000002</v>
       </c>
       <c r="BT20" s="1">
         <v>11.544658</v>
       </c>
       <c r="BU20" s="1">
-        <v>1416.890000</v>
+        <v>1416.89</v>
       </c>
       <c r="BV20" s="1">
-        <v>-811.031000</v>
+        <v>-811.03099999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>41572.379396</v>
+        <v>41572.379395999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.547883</v>
+        <v>11.547883000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1580.570000</v>
+        <v>1580.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1050.800000</v>
+        <v>-1050.8</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>41584.695060</v>
+        <v>41584.695059999998</v>
       </c>
       <c r="CD20" s="1">
         <v>11.551304</v>
       </c>
       <c r="CE20" s="1">
-        <v>1995.610000</v>
+        <v>1995.61</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1613.100000</v>
+        <v>-1613.1</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>41410.897387</v>
+        <v>41410.897386999997</v>
       </c>
       <c r="B21" s="1">
-        <v>11.503027</v>
+        <v>11.503026999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>913.698000</v>
+        <v>913.69799999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-182.676000</v>
+        <v>-182.67599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>41421.363995</v>
@@ -5379,103 +5795,103 @@
         <v>11.505934</v>
       </c>
       <c r="H21" s="1">
-        <v>928.280000</v>
+        <v>928.28</v>
       </c>
       <c r="I21" s="1">
-        <v>-155.192000</v>
+        <v>-155.19200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>41431.896509</v>
+        <v>41431.896508999998</v>
       </c>
       <c r="L21" s="1">
-        <v>11.508860</v>
+        <v>11.50886</v>
       </c>
       <c r="M21" s="1">
-        <v>948.395000</v>
+        <v>948.39499999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-113.121000</v>
+        <v>-113.121</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>41442.549584</v>
       </c>
       <c r="Q21" s="1">
-        <v>11.511819</v>
+        <v>11.511818999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>954.709000</v>
+        <v>954.70899999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.522200</v>
+        <v>-99.522199999999998</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>41452.971026</v>
+        <v>41452.971025999999</v>
       </c>
       <c r="V21" s="1">
         <v>11.514714</v>
       </c>
       <c r="W21" s="1">
-        <v>961.245000</v>
+        <v>961.245</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.473700</v>
+        <v>-87.473699999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>41463.481286</v>
+        <v>41463.481286000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.517634</v>
+        <v>11.517633999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.788000</v>
+        <v>968.78800000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.384300</v>
+        <v>-79.384299999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>41473.937941</v>
+        <v>41473.937940999996</v>
       </c>
       <c r="AF21" s="1">
         <v>11.520538</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.859000</v>
+        <v>973.85900000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.200800</v>
+        <v>-79.200800000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>41484.461033</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.523461</v>
+        <v>11.523460999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>982.299000</v>
+        <v>982.29899999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.543600</v>
+        <v>-87.543599999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>41495.342762</v>
@@ -5484,103 +5900,103 @@
         <v>11.526484</v>
       </c>
       <c r="AQ21" s="1">
-        <v>991.773000</v>
+        <v>991.77300000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.778000</v>
+        <v>-102.77800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>41506.442731</v>
+        <v>41506.442731000003</v>
       </c>
       <c r="AU21" s="1">
         <v>11.529567</v>
       </c>
       <c r="AV21" s="1">
-        <v>1003.270000</v>
+        <v>1003.27</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.554000</v>
+        <v>-124.554</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>41517.053677</v>
+        <v>41517.053677000004</v>
       </c>
       <c r="AZ21" s="1">
         <v>11.532515</v>
       </c>
       <c r="BA21" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.405000</v>
+        <v>-143.405</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>41527.826256</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.535507</v>
+        <v>11.535507000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1058.070000</v>
+        <v>1058.07</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.936000</v>
+        <v>-228.93600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>41539.237218</v>
+        <v>41539.237218000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.538677</v>
       </c>
       <c r="BK21" s="1">
-        <v>1137.200000</v>
+        <v>1137.2</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.804000</v>
+        <v>-366.80399999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>41550.521697</v>
+        <v>41550.521696999996</v>
       </c>
       <c r="BO21" s="1">
         <v>11.541812</v>
       </c>
       <c r="BP21" s="1">
-        <v>1268.540000</v>
+        <v>1268.54</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.985000</v>
+        <v>-580.98500000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>41561.498162</v>
+        <v>41561.498162000004</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.544861</v>
+        <v>11.544860999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1416.700000</v>
+        <v>1416.7</v>
       </c>
       <c r="BV21" s="1">
-        <v>-810.953000</v>
+        <v>-810.95299999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>41572.493509</v>
@@ -5589,60 +6005,60 @@
         <v>11.547915</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1580.650000</v>
+        <v>1580.65</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1050.550000</v>
+        <v>-1050.55</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>41585.210899</v>
+        <v>41585.210898999998</v>
       </c>
       <c r="CD21" s="1">
         <v>11.551447</v>
       </c>
       <c r="CE21" s="1">
-        <v>1995.380000</v>
+        <v>1995.38</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1613.010000</v>
+        <v>-1613.01</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>41411.241114</v>
+        <v>41411.241113999997</v>
       </c>
       <c r="B22" s="1">
         <v>11.503123</v>
       </c>
       <c r="C22" s="1">
-        <v>913.905000</v>
+        <v>913.90499999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-182.664000</v>
+        <v>-182.66399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>41421.809371</v>
+        <v>41421.809371000003</v>
       </c>
       <c r="G22" s="1">
-        <v>11.506058</v>
+        <v>11.506057999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>928.415000</v>
+        <v>928.41499999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-155.272000</v>
+        <v>-155.27199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>41432.324557</v>
@@ -5651,88 +6067,88 @@
         <v>11.508979</v>
       </c>
       <c r="M22" s="1">
-        <v>948.406000</v>
+        <v>948.40599999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-112.934000</v>
+        <v>-112.934</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>41442.831311</v>
+        <v>41442.831311000002</v>
       </c>
       <c r="Q22" s="1">
         <v>11.511898</v>
       </c>
       <c r="R22" s="1">
-        <v>954.692000</v>
+        <v>954.69200000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.518300</v>
+        <v>-99.518299999999996</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>41453.314289</v>
+        <v>41453.314289000002</v>
       </c>
       <c r="V22" s="1">
-        <v>11.514810</v>
+        <v>11.514810000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>961.208000</v>
+        <v>961.20799999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.479100</v>
+        <v>-87.479100000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>41463.829445</v>
+        <v>41463.829445000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.517730</v>
+        <v>11.51773</v>
       </c>
       <c r="AB22" s="1">
-        <v>968.860000</v>
+        <v>968.86</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.382700</v>
+        <v>-79.3827</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>41474.281639</v>
+        <v>41474.281639000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.520634</v>
+        <v>11.520633999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.886000</v>
+        <v>973.88599999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.192000</v>
+        <v>-79.191999999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>41485.158407</v>
+        <v>41485.158407000003</v>
       </c>
       <c r="AK22" s="1">
         <v>11.523655</v>
       </c>
       <c r="AL22" s="1">
-        <v>982.344000</v>
+        <v>982.34400000000005</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.531600</v>
+        <v>-87.531599999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>41496.059512</v>
@@ -5741,315 +6157,315 @@
         <v>11.526683</v>
       </c>
       <c r="AQ22" s="1">
-        <v>991.766000</v>
+        <v>991.76599999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.788000</v>
+        <v>-102.788</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>41506.824650</v>
+        <v>41506.824650000002</v>
       </c>
       <c r="AU22" s="1">
         <v>11.529674</v>
       </c>
       <c r="AV22" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.541000</v>
+        <v>-124.541</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>41517.428124</v>
+        <v>41517.428123999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>11.532619</v>
       </c>
       <c r="BA22" s="1">
-        <v>1012.920000</v>
+        <v>1012.92</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.390000</v>
+        <v>-143.38999999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>41528.206686</v>
+        <v>41528.206685999998</v>
       </c>
       <c r="BE22" s="1">
         <v>11.535613</v>
       </c>
       <c r="BF22" s="1">
-        <v>1058.070000</v>
+        <v>1058.07</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.953000</v>
+        <v>-228.953</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>41539.934591</v>
+        <v>41539.934590999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.538871</v>
       </c>
       <c r="BK22" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.793000</v>
+        <v>-366.79300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>41551.007776</v>
+        <v>41551.007775999999</v>
       </c>
       <c r="BO22" s="1">
         <v>11.541947</v>
       </c>
       <c r="BP22" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.013000</v>
+        <v>-581.01300000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>41561.608809</v>
+        <v>41561.608808999998</v>
       </c>
       <c r="BT22" s="1">
         <v>11.544891</v>
       </c>
       <c r="BU22" s="1">
-        <v>1416.720000</v>
+        <v>1416.72</v>
       </c>
       <c r="BV22" s="1">
-        <v>-810.970000</v>
+        <v>-810.97</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>41572.920531</v>
+        <v>41572.920531000003</v>
       </c>
       <c r="BY22" s="1">
         <v>11.548033</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1580.430000</v>
+        <v>1580.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1050.400000</v>
+        <v>-1050.4000000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>41585.761956</v>
+        <v>41585.761956000002</v>
       </c>
       <c r="CD22" s="1">
         <v>11.551601</v>
       </c>
       <c r="CE22" s="1">
-        <v>1994.830000</v>
+        <v>1994.83</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1612.460000</v>
+        <v>-1612.46</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>41411.667711</v>
+        <v>41411.667711000002</v>
       </c>
       <c r="B23" s="1">
-        <v>11.503241</v>
+        <v>11.503240999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>913.833000</v>
+        <v>913.83299999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-182.589000</v>
+        <v>-182.589</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>41422.077212</v>
+        <v>41422.077211999997</v>
       </c>
       <c r="G23" s="1">
         <v>11.506133</v>
       </c>
       <c r="H23" s="1">
-        <v>928.174000</v>
+        <v>928.17399999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-154.795000</v>
+        <v>-154.79499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>41432.599348</v>
+        <v>41432.599348000003</v>
       </c>
       <c r="L23" s="1">
         <v>11.509055</v>
       </c>
       <c r="M23" s="1">
-        <v>948.392000</v>
+        <v>948.39200000000005</v>
       </c>
       <c r="N23" s="1">
-        <v>-113.171000</v>
+        <v>-113.17100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>41443.181023</v>
+        <v>41443.181022999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.511995</v>
+        <v>11.511995000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>954.676000</v>
+        <v>954.67600000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.504100</v>
+        <v>-99.504099999999994</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>41453.657490</v>
+        <v>41453.657489999998</v>
       </c>
       <c r="V23" s="1">
-        <v>11.514905</v>
+        <v>11.514905000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>961.206000</v>
+        <v>961.20600000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.409600</v>
+        <v>-87.409599999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>41464.179658</v>
+        <v>41464.179658000001</v>
       </c>
       <c r="AA23" s="1">
         <v>11.517828</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.789000</v>
+        <v>968.78899999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.396400</v>
+        <v>-79.3964</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>41474.969863</v>
+        <v>41474.969862999998</v>
       </c>
       <c r="AF23" s="1">
         <v>11.520825</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.877000</v>
+        <v>973.87699999999995</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.223800</v>
+        <v>-79.223799999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>41485.506630</v>
+        <v>41485.506630000003</v>
       </c>
       <c r="AK23" s="1">
         <v>11.523752</v>
       </c>
       <c r="AL23" s="1">
-        <v>982.344000</v>
+        <v>982.34400000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.538400</v>
+        <v>-87.538399999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>41496.422585</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.526784</v>
+        <v>11.526783999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>991.752000</v>
+        <v>991.75199999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.768000</v>
+        <v>-102.768</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>41507.191228</v>
+        <v>41507.191228000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>11.529775</v>
+        <v>11.529775000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.548000</v>
+        <v>-124.548</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>41518.106157</v>
+        <v>41518.106157000002</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.532807</v>
       </c>
       <c r="BA23" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.394000</v>
+        <v>-143.39400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>41528.897614</v>
+        <v>41528.897614000001</v>
       </c>
       <c r="BE23" s="1">
         <v>11.535805</v>
       </c>
       <c r="BF23" s="1">
-        <v>1058.110000</v>
+        <v>1058.1099999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>41540.395374</v>
@@ -6058,150 +6474,150 @@
         <v>11.538999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1137.160000</v>
+        <v>1137.1600000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.820000</v>
+        <v>-366.82</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>41551.428383</v>
+        <v>41551.428382999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.542063</v>
+        <v>11.542063000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1268.520000</v>
+        <v>1268.52</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.998000</v>
+        <v>-580.99800000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>41562.054178</v>
+        <v>41562.054177999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.545015</v>
+        <v>11.545014999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1416.650000</v>
+        <v>1416.65</v>
       </c>
       <c r="BV23" s="1">
-        <v>-810.918000</v>
+        <v>-810.91800000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>41573.341635</v>
+        <v>41573.341634999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.548150</v>
+        <v>11.54815</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1580.470000</v>
+        <v>1580.47</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>41586.289217</v>
+        <v>41586.289216999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.551747</v>
+        <v>11.551747000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1996.310000</v>
+        <v>1996.31</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1613.090000</v>
+        <v>-1613.09</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>41411.942457</v>
+        <v>41411.942456999997</v>
       </c>
       <c r="B24" s="1">
-        <v>11.503317</v>
+        <v>11.503316999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>913.839000</v>
+        <v>913.83900000000006</v>
       </c>
       <c r="D24" s="1">
-        <v>-182.860000</v>
+        <v>-182.86</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>41422.425404</v>
+        <v>41422.425404000001</v>
       </c>
       <c r="G24" s="1">
-        <v>11.506229</v>
+        <v>11.506228999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>927.649000</v>
+        <v>927.649</v>
       </c>
       <c r="I24" s="1">
-        <v>-155.080000</v>
+        <v>-155.08000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>41432.959932</v>
+        <v>41432.959931999998</v>
       </c>
       <c r="L24" s="1">
-        <v>11.509156</v>
+        <v>11.509156000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>948.445000</v>
+        <v>948.44500000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-113.227000</v>
+        <v>-113.227</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>41443.528686</v>
+        <v>41443.528685999998</v>
       </c>
       <c r="Q24" s="1">
         <v>11.512091</v>
       </c>
       <c r="R24" s="1">
-        <v>954.640000</v>
+        <v>954.64</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.526900</v>
+        <v>-99.526899999999998</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>41454.344448</v>
+        <v>41454.344448000003</v>
       </c>
       <c r="V24" s="1">
         <v>11.515096</v>
       </c>
       <c r="W24" s="1">
-        <v>961.127000</v>
+        <v>961.12699999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.618000</v>
+        <v>-87.617999999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>41464.878482</v>
@@ -6210,148 +6626,148 @@
         <v>11.518022</v>
       </c>
       <c r="AB24" s="1">
-        <v>968.796000</v>
+        <v>968.79600000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.380700</v>
+        <v>-79.380700000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>41475.310838</v>
+        <v>41475.310837999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.520920</v>
+        <v>11.52092</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.880000</v>
+        <v>973.88</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.187100</v>
+        <v>-79.187100000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>41485.863222</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.523851</v>
+        <v>11.523851000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>982.310000</v>
+        <v>982.31</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.535200</v>
+        <v>-87.535200000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>41496.782648</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.526884</v>
+        <v>11.526884000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>991.782000</v>
+        <v>991.78200000000004</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.773000</v>
+        <v>-102.773</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>41507.880174</v>
+        <v>41507.880173999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>11.529967</v>
+        <v>11.529966999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.567000</v>
+        <v>-124.56699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>41518.514363</v>
+        <v>41518.514363000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>11.532921</v>
       </c>
       <c r="BA24" s="1">
-        <v>1012.930000</v>
+        <v>1012.93</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.406000</v>
+        <v>-143.40600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>41529.292429</v>
+        <v>41529.292429000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.535915</v>
+        <v>11.535914999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1058.070000</v>
+        <v>1058.07</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.935000</v>
+        <v>-228.935</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>41540.784771</v>
+        <v>41540.784770999999</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.539107</v>
       </c>
       <c r="BK24" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.815000</v>
+        <v>-366.815</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>41551.827167</v>
+        <v>41551.827167000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>11.542174</v>
+        <v>11.542173999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1268.550000</v>
+        <v>1268.55</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.995000</v>
+        <v>-580.995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>41562.566050</v>
+        <v>41562.566050000001</v>
       </c>
       <c r="BT24" s="1">
         <v>11.545157</v>
       </c>
       <c r="BU24" s="1">
-        <v>1416.580000</v>
+        <v>1416.58</v>
       </c>
       <c r="BV24" s="1">
-        <v>-810.876000</v>
+        <v>-810.87599999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>41573.789524</v>
@@ -6360,60 +6776,60 @@
         <v>11.548275</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1580.440000</v>
+        <v>1580.44</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1050.530000</v>
+        <v>-1050.53</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>41586.810498</v>
+        <v>41586.810497999999</v>
       </c>
       <c r="CD24" s="1">
         <v>11.551892</v>
       </c>
       <c r="CE24" s="1">
-        <v>1996.830000</v>
+        <v>1996.83</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1611.490000</v>
+        <v>-1611.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>41412.285192</v>
+        <v>41412.285192000003</v>
       </c>
       <c r="B25" s="1">
         <v>11.503413</v>
       </c>
       <c r="C25" s="1">
-        <v>913.663000</v>
+        <v>913.66300000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-182.726000</v>
+        <v>-182.726</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>41422.767643</v>
+        <v>41422.767642999999</v>
       </c>
       <c r="G25" s="1">
-        <v>11.506324</v>
+        <v>11.506323999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>928.158000</v>
+        <v>928.15800000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-155.393000</v>
+        <v>-155.393</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>41433.649867</v>
@@ -6422,13 +6838,13 @@
         <v>11.509347</v>
       </c>
       <c r="M25" s="1">
-        <v>948.486000</v>
+        <v>948.48599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-113.135000</v>
+        <v>-113.13500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>41444.224573</v>
@@ -6437,133 +6853,133 @@
         <v>11.512285</v>
       </c>
       <c r="R25" s="1">
-        <v>954.619000</v>
+        <v>954.61900000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.582800</v>
+        <v>-99.582800000000006</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>41454.687724</v>
+        <v>41454.687724000003</v>
       </c>
       <c r="V25" s="1">
         <v>11.515191</v>
       </c>
       <c r="W25" s="1">
-        <v>961.329000</v>
+        <v>961.32899999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.560900</v>
+        <v>-87.560900000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>41465.224208</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.518118</v>
+        <v>11.518117999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.765000</v>
+        <v>968.76499999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.397700</v>
+        <v>-79.3977</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>41475.656084</v>
+        <v>41475.656084000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.521016</v>
+        <v>11.521015999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.878000</v>
+        <v>973.87800000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.206700</v>
+        <v>-79.206699999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>41486.517478</v>
+        <v>41486.517478000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.524033</v>
+        <v>11.524032999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>982.301000</v>
+        <v>982.30100000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.522800</v>
+        <v>-87.522800000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>41497.491431</v>
+        <v>41497.491431000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.527081</v>
+        <v>11.527081000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>991.752000</v>
+        <v>991.75199999999995</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.778000</v>
+        <v>-102.77800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>41508.312153</v>
+        <v>41508.312152999999</v>
       </c>
       <c r="AU25" s="1">
         <v>11.530087</v>
       </c>
       <c r="AV25" s="1">
-        <v>1003.260000</v>
+        <v>1003.26</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.536000</v>
+        <v>-124.536</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>41518.890828</v>
+        <v>41518.890828000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>11.533025</v>
       </c>
       <c r="BA25" s="1">
-        <v>1012.940000</v>
+        <v>1012.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.375000</v>
+        <v>-143.375</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>41529.678813</v>
+        <v>41529.678812999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.536022</v>
+        <v>11.536022000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1058.090000</v>
+        <v>1058.0899999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.933000</v>
+        <v>-228.93299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>41541.160206</v>
@@ -6572,180 +6988,180 @@
         <v>11.539211</v>
       </c>
       <c r="BK25" s="1">
-        <v>1137.180000</v>
+        <v>1137.18</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>41552.258191</v>
+        <v>41552.258191000001</v>
       </c>
       <c r="BO25" s="1">
         <v>11.542294</v>
       </c>
       <c r="BP25" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.973000</v>
+        <v>-580.97299999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>41563.320496</v>
       </c>
       <c r="BT25" s="1">
-        <v>11.545367</v>
+        <v>11.545367000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1416.520000</v>
+        <v>1416.52</v>
       </c>
       <c r="BV25" s="1">
-        <v>-810.716000</v>
+        <v>-810.71600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>41574.210129</v>
+        <v>41574.210128999999</v>
       </c>
       <c r="BY25" s="1">
         <v>11.548392</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1580.370000</v>
+        <v>1580.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1050.560000</v>
+        <v>-1050.56</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>41587.329840</v>
+        <v>41587.329839999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.552036</v>
+        <v>11.552035999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1995.130000</v>
+        <v>1995.13</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1610.980000</v>
+        <v>-1610.98</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>41412.625470</v>
+        <v>41412.625469999999</v>
       </c>
       <c r="B26" s="1">
-        <v>11.503507</v>
+        <v>11.503507000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>913.722000</v>
+        <v>913.72199999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-182.637000</v>
+        <v>-182.637</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>41423.457082</v>
+        <v>41423.457082000001</v>
       </c>
       <c r="G26" s="1">
         <v>11.506516</v>
       </c>
       <c r="H26" s="1">
-        <v>928.362000</v>
+        <v>928.36199999999997</v>
       </c>
       <c r="I26" s="1">
-        <v>-155.581000</v>
+        <v>-155.58099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>41433.998556</v>
+        <v>41433.998555999999</v>
       </c>
       <c r="L26" s="1">
         <v>11.509444</v>
       </c>
       <c r="M26" s="1">
-        <v>948.241000</v>
+        <v>948.24099999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-113.085000</v>
+        <v>-113.08499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>41444.574253</v>
+        <v>41444.574252999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.512382</v>
+        <v>11.512382000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>954.619000</v>
+        <v>954.61900000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.655100</v>
+        <v>-99.655100000000004</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>41455.030451</v>
+        <v>41455.030450999999</v>
       </c>
       <c r="V26" s="1">
         <v>11.515286</v>
       </c>
       <c r="W26" s="1">
-        <v>961.219000</v>
+        <v>961.21900000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.600900</v>
+        <v>-87.600899999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>41465.890353</v>
+        <v>41465.890353000003</v>
       </c>
       <c r="AA26" s="1">
         <v>11.518303</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.769000</v>
+        <v>968.76900000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.428300</v>
+        <v>-79.428299999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>41476.314740</v>
+        <v>41476.314740000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.521199</v>
+        <v>11.521198999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.853000</v>
+        <v>973.85299999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.210500</v>
+        <v>-79.210499999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>41486.898901</v>
@@ -6754,150 +7170,151 @@
         <v>11.524139</v>
       </c>
       <c r="AL26" s="1">
-        <v>982.312000</v>
+        <v>982.31200000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.553300</v>
+        <v>-87.553299999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>41497.882808</v>
+        <v>41497.882808000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.527190</v>
+        <v>11.527189999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.785000</v>
+        <v>991.78499999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.768000</v>
+        <v>-102.768</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>41508.678696</v>
+        <v>41508.678696000003</v>
       </c>
       <c r="AU26" s="1">
         <v>11.530189</v>
       </c>
       <c r="AV26" s="1">
-        <v>1003.280000</v>
+        <v>1003.28</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.530000</v>
+        <v>-124.53</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>41519.269770</v>
+        <v>41519.269769999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.533130</v>
+        <v>11.53313</v>
       </c>
       <c r="BA26" s="1">
-        <v>1012.950000</v>
+        <v>1012.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.396000</v>
+        <v>-143.39599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>41530.061737</v>
+        <v>41530.061737000004</v>
       </c>
       <c r="BE26" s="1">
         <v>11.536128</v>
       </c>
       <c r="BF26" s="1">
-        <v>1058.100000</v>
+        <v>1058.0999999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>41541.587262</v>
+        <v>41541.587262000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.539330</v>
+        <v>11.53933</v>
       </c>
       <c r="BK26" s="1">
-        <v>1137.170000</v>
+        <v>1137.17</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.807000</v>
+        <v>-366.80700000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>41552.654990</v>
+        <v>41552.654990000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.542404</v>
+        <v>11.542403999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.998000</v>
+        <v>-580.99800000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>41563.752976</v>
+        <v>41563.752976000003</v>
       </c>
       <c r="BT26" s="1">
         <v>11.545487</v>
       </c>
       <c r="BU26" s="1">
-        <v>1416.550000</v>
+        <v>1416.55</v>
       </c>
       <c r="BV26" s="1">
-        <v>-810.677000</v>
+        <v>-810.67700000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>41574.633250</v>
+        <v>41574.633249999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.548509</v>
+        <v>11.548508999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1580.450000</v>
+        <v>1580.45</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1050.580000</v>
+        <v>-1050.58</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>41587.847167</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.552180</v>
+        <v>11.55218</v>
       </c>
       <c r="CE26" s="1">
-        <v>1995.490000</v>
+        <v>1995.49</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1611.070000</v>
+        <v>-1611.07</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>